--- a/state_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
+++ b/state_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U209"/>
+  <dimension ref="A1:U230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -732,7 +732,7 @@
         <v>0.007</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0078021953520627</v>
+        <v>0.007802582960813</v>
       </c>
       <c r="H4" t="n">
         <v>0.0246861267601575</v>
@@ -813,7 +813,7 @@
         <v>0.007</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0078021953520627</v>
+        <v>0.007802582960813</v>
       </c>
       <c r="H5" t="n">
         <v>0.0246861267601575</v>
@@ -1052,13 +1052,13 @@
         <v>0.8985</v>
       </c>
       <c r="G8" t="n">
-        <v>0.967630434782609</v>
+        <v>0.967663043478261</v>
       </c>
       <c r="H8" t="n">
         <v>2.008</v>
       </c>
       <c r="I8" t="n">
-        <v>1.6964</v>
+        <v>1.6968</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1066,7 +1066,7 @@
         <v>0.7645</v>
       </c>
       <c r="M8" t="n">
-        <v>1.28472</v>
+        <v>1.28438</v>
       </c>
       <c r="N8" t="n">
         <v>1.57666</v>
@@ -1129,13 +1129,13 @@
         <v>0.8985</v>
       </c>
       <c r="G9" t="n">
-        <v>0.967630434782609</v>
+        <v>0.967663043478261</v>
       </c>
       <c r="H9" t="n">
         <v>2.008</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6964</v>
+        <v>1.6968</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -1143,7 +1143,7 @@
         <v>0.7645</v>
       </c>
       <c r="M9" t="n">
-        <v>1.28472</v>
+        <v>1.28438</v>
       </c>
       <c r="N9" t="n">
         <v>1.57666</v>
@@ -1206,7 +1206,7 @@
         <v>0.02</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0220809525966142</v>
+        <v>0.0220858782997685</v>
       </c>
       <c r="H10" t="n">
         <v>0.07000000000000001</v>
@@ -1283,7 +1283,7 @@
         <v>0.02</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0220809525966142</v>
+        <v>0.0220858782997685</v>
       </c>
       <c r="H11" t="n">
         <v>0.07000000000000001</v>
@@ -1526,7 +1526,7 @@
         <v>0.00417</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0058758361985045</v>
+        <v>0.0058763314763521</v>
       </c>
       <c r="H14" t="n">
         <v>0.0184320039302749</v>
@@ -1607,7 +1607,7 @@
         <v>0.00417</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0058758361985045</v>
+        <v>0.0058763314763521</v>
       </c>
       <c r="H15" t="n">
         <v>0.0184320039302749</v>
@@ -1843,27 +1843,27 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9455</v>
+        <v>0.94575</v>
       </c>
       <c r="G18" t="n">
-        <v>1.01427777777778</v>
+        <v>1.01431944444444</v>
       </c>
       <c r="H18" t="n">
         <v>2.008</v>
       </c>
       <c r="I18" t="n">
-        <v>1.8749</v>
+        <v>1.87505</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
-        <v>0.7165</v>
+        <v>0.71675</v>
       </c>
       <c r="M18" t="n">
         <v>1.42886</v>
       </c>
       <c r="N18" t="n">
-        <v>1.61436</v>
+        <v>1.61467</v>
       </c>
       <c r="O18" t="n">
         <v>1840094</v>
@@ -1920,27 +1920,27 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9455</v>
+        <v>0.94575</v>
       </c>
       <c r="G19" t="n">
-        <v>1.01427777777778</v>
+        <v>1.01431944444444</v>
       </c>
       <c r="H19" t="n">
         <v>2.008</v>
       </c>
       <c r="I19" t="n">
-        <v>1.8749</v>
+        <v>1.87505</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
-        <v>0.7165</v>
+        <v>0.71675</v>
       </c>
       <c r="M19" t="n">
         <v>1.42886</v>
       </c>
       <c r="N19" t="n">
-        <v>1.61436</v>
+        <v>1.61467</v>
       </c>
       <c r="O19" t="n">
         <v>1840094</v>
@@ -2000,7 +2000,7 @@
         <v>0.02</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0228388389064156</v>
+        <v>0.0228465103019402</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
@@ -2077,7 +2077,7 @@
         <v>0.02</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0228388389064156</v>
+        <v>0.0228465103019402</v>
       </c>
       <c r="H21" t="n">
         <v>0.07000000000000001</v>
@@ -2158,7 +2158,7 @@
         <v>0.005</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0047936668191598</v>
+        <v>0.0048037227918486</v>
       </c>
       <c r="H22" t="n">
         <v>0.01</v>
@@ -2239,7 +2239,7 @@
         <v>0.005</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0047936668191598</v>
+        <v>0.0048037227918486</v>
       </c>
       <c r="H23" t="n">
         <v>0.01</v>
@@ -2320,7 +2320,7 @@
         <v>0.00445</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0070022886473546</v>
+        <v>0.007000544922755</v>
       </c>
       <c r="H24" t="n">
         <v>0.0392321319415957</v>
@@ -2401,7 +2401,7 @@
         <v>0.00445</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0070022886473546</v>
+        <v>0.007000544922755</v>
       </c>
       <c r="H25" t="n">
         <v>0.0392321319415957</v>
@@ -2640,7 +2640,7 @@
         <v>0.908</v>
       </c>
       <c r="G28" t="n">
-        <v>0.931757575757576</v>
+        <v>0.931730303030303</v>
       </c>
       <c r="H28" t="n">
         <v>1.694</v>
@@ -2717,7 +2717,7 @@
         <v>0.908</v>
       </c>
       <c r="G29" t="n">
-        <v>0.931757575757576</v>
+        <v>0.931730303030303</v>
       </c>
       <c r="H29" t="n">
         <v>1.694</v>
@@ -2794,7 +2794,7 @@
         <v>0.016</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0293278576414447</v>
+        <v>0.0293327571479469</v>
       </c>
       <c r="H30" t="n">
         <v>0.22</v>
@@ -2871,7 +2871,7 @@
         <v>0.016</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0293278576414447</v>
+        <v>0.0293327571479469</v>
       </c>
       <c r="H31" t="n">
         <v>0.22</v>
@@ -2952,7 +2952,7 @@
         <v>0.005</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0050271763649243</v>
+        <v>0.005034862935433</v>
       </c>
       <c r="H32" t="n">
         <v>0.01</v>
@@ -3033,7 +3033,7 @@
         <v>0.005</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0050271763649243</v>
+        <v>0.005034862935433</v>
       </c>
       <c r="H33" t="n">
         <v>0.01</v>
@@ -3114,7 +3114,7 @@
         <v>0.00302</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0060041787206181</v>
+        <v>0.006002921616837</v>
       </c>
       <c r="H34" t="n">
         <v>0.0392321319415957</v>
@@ -3195,7 +3195,7 @@
         <v>0.00302</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0060041787206181</v>
+        <v>0.006002921616837</v>
       </c>
       <c r="H35" t="n">
         <v>0.0392321319415957</v>
@@ -3431,10 +3431,10 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.885</v>
+        <v>0.8845</v>
       </c>
       <c r="G38" t="n">
-        <v>0.874777777777778</v>
+        <v>0.8747200000000001</v>
       </c>
       <c r="H38" t="n">
         <v>1.694</v>
@@ -3445,10 +3445,10 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>0.696</v>
+        <v>0.6959</v>
       </c>
       <c r="M38" t="n">
-        <v>1.16685</v>
+        <v>1.16728</v>
       </c>
       <c r="N38" t="n">
         <v>1.3909</v>
@@ -3508,10 +3508,10 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.885</v>
+        <v>0.8845</v>
       </c>
       <c r="G39" t="n">
-        <v>0.874777777777778</v>
+        <v>0.8747200000000001</v>
       </c>
       <c r="H39" t="n">
         <v>1.694</v>
@@ -3522,10 +3522,10 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
-        <v>0.696</v>
+        <v>0.6959</v>
       </c>
       <c r="M39" t="n">
-        <v>1.16685</v>
+        <v>1.16728</v>
       </c>
       <c r="N39" t="n">
         <v>1.3909</v>
@@ -3588,7 +3588,7 @@
         <v>0.016</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0261070956037261</v>
+        <v>0.026110688575161</v>
       </c>
       <c r="H40" t="n">
         <v>0.22</v>
@@ -3665,7 +3665,7 @@
         <v>0.016</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0261070956037261</v>
+        <v>0.026110688575161</v>
       </c>
       <c r="H41" t="n">
         <v>0.22</v>
@@ -3746,13 +3746,13 @@
         <v>1.7</v>
       </c>
       <c r="G42" t="n">
-        <v>2.08758597483869</v>
+        <v>1.95818540521323</v>
       </c>
       <c r="H42" t="n">
         <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>5.69137</v>
+        <v>4.96583</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -3760,10 +3760,10 @@
         <v>1.85</v>
       </c>
       <c r="M42" t="n">
-        <v>3.29462</v>
+        <v>3.023</v>
       </c>
       <c r="N42" t="n">
-        <v>5.01456</v>
+        <v>4.33023</v>
       </c>
       <c r="O42" t="n">
         <v>1840094</v>
@@ -3827,7 +3827,7 @@
         <v>0.006</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0061793497617823</v>
+        <v>0.0061854181069208</v>
       </c>
       <c r="H43" t="n">
         <v>0.048</v>
@@ -3908,7 +3908,7 @@
         <v>0.006</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0061793497617823</v>
+        <v>0.0061854181069208</v>
       </c>
       <c r="H44" t="n">
         <v>0.048</v>
@@ -4329,7 +4329,7 @@
         <v>0.00304</v>
       </c>
       <c r="G49" t="n">
-        <v>0.008981223493022701</v>
+        <v>0.0089802406664302</v>
       </c>
       <c r="H49" t="n">
         <v>0.165941180666665</v>
@@ -4410,7 +4410,7 @@
         <v>0.00304</v>
       </c>
       <c r="G50" t="n">
-        <v>0.008981223493022701</v>
+        <v>0.0089802406664302</v>
       </c>
       <c r="H50" t="n">
         <v>0.165941180666665</v>
@@ -4646,24 +4646,24 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.885</v>
+        <v>0.8845</v>
       </c>
       <c r="G53" t="n">
-        <v>0.874666666666667</v>
+        <v>0.8746070175438601</v>
       </c>
       <c r="H53" t="n">
         <v>1.694</v>
       </c>
       <c r="I53" t="n">
-        <v>1.5087</v>
+        <v>1.50859</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>0.5975</v>
+        <v>0.5977</v>
       </c>
       <c r="M53" t="n">
-        <v>1.18491</v>
+        <v>1.185</v>
       </c>
       <c r="N53" t="n">
         <v>1.45406</v>
@@ -4723,24 +4723,24 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.885</v>
+        <v>0.8845</v>
       </c>
       <c r="G54" t="n">
-        <v>0.874666666666667</v>
+        <v>0.8746070175438601</v>
       </c>
       <c r="H54" t="n">
         <v>1.694</v>
       </c>
       <c r="I54" t="n">
-        <v>1.5087</v>
+        <v>1.50859</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>0.5975</v>
+        <v>0.5977</v>
       </c>
       <c r="M54" t="n">
-        <v>1.18491</v>
+        <v>1.185</v>
       </c>
       <c r="N54" t="n">
         <v>1.45406</v>
@@ -4957,7 +4957,7 @@
         <v>0.015</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0233827947748715</v>
+        <v>0.0233856313312675</v>
       </c>
       <c r="H57" t="n">
         <v>0.22</v>
@@ -5034,7 +5034,7 @@
         <v>0.015</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0233827947748715</v>
+        <v>0.0233856313312675</v>
       </c>
       <c r="H58" t="n">
         <v>0.22</v>
@@ -5115,7 +5115,7 @@
         <v>0.005</v>
       </c>
       <c r="G59" t="n">
-        <v>0.0061547686038286</v>
+        <v>0.0061599395825476</v>
       </c>
       <c r="H59" t="n">
         <v>0.048</v>
@@ -5196,7 +5196,7 @@
         <v>0.005</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0061547686038286</v>
+        <v>0.0061599395825476</v>
       </c>
       <c r="H60" t="n">
         <v>0.048</v>
@@ -5617,7 +5617,7 @@
         <v>0.00445</v>
       </c>
       <c r="G65" t="n">
-        <v>0.009040296900284</v>
+        <v>0.009040059194190099</v>
       </c>
       <c r="H65" t="n">
         <v>0.165941180666665</v>
@@ -5698,7 +5698,7 @@
         <v>0.00445</v>
       </c>
       <c r="G66" t="n">
-        <v>0.009040296900284</v>
+        <v>0.009040059194190099</v>
       </c>
       <c r="H66" t="n">
         <v>0.165941180666665</v>
@@ -5934,10 +5934,10 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.9215</v>
+        <v>0.92135</v>
       </c>
       <c r="G69" t="n">
-        <v>0.914533333333333</v>
+        <v>0.914475</v>
       </c>
       <c r="H69" t="n">
         <v>1.694</v>
@@ -5948,13 +5948,13 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
-        <v>0.617</v>
+        <v>0.61695</v>
       </c>
       <c r="M69" t="n">
-        <v>1.2616</v>
+        <v>1.26145</v>
       </c>
       <c r="N69" t="n">
-        <v>1.485</v>
+        <v>1.48479</v>
       </c>
       <c r="O69" t="n">
         <v>1840094</v>
@@ -6011,10 +6011,10 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.9215</v>
+        <v>0.92135</v>
       </c>
       <c r="G70" t="n">
-        <v>0.914533333333333</v>
+        <v>0.914475</v>
       </c>
       <c r="H70" t="n">
         <v>1.694</v>
@@ -6025,13 +6025,13 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
-        <v>0.617</v>
+        <v>0.61695</v>
       </c>
       <c r="M70" t="n">
-        <v>1.2616</v>
+        <v>1.26145</v>
       </c>
       <c r="N70" t="n">
-        <v>1.485</v>
+        <v>1.48479</v>
       </c>
       <c r="O70" t="n">
         <v>1840094</v>
@@ -6245,7 +6245,7 @@
         <v>0.0135</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0230969883694613</v>
+        <v>0.0230996830980374</v>
       </c>
       <c r="H73" t="n">
         <v>0.22</v>
@@ -6322,7 +6322,7 @@
         <v>0.0135</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0230969883694613</v>
+        <v>0.0230996830980374</v>
       </c>
       <c r="H74" t="n">
         <v>0.22</v>
@@ -6403,7 +6403,7 @@
         <v>0.005</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0065531780498692</v>
+        <v>0.0065563575951942</v>
       </c>
       <c r="H75" t="n">
         <v>0.048</v>
@@ -6484,7 +6484,7 @@
         <v>0.005</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0065531780498692</v>
+        <v>0.0065563575951942</v>
       </c>
       <c r="H76" t="n">
         <v>0.048</v>
@@ -6905,7 +6905,7 @@
         <v>0.00195</v>
       </c>
       <c r="G81" t="n">
-        <v>0.007872908261108501</v>
+        <v>0.0078738077135454</v>
       </c>
       <c r="H81" t="n">
         <v>0.165941180666665</v>
@@ -6916,7 +6916,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.00131</v>
+        <v>0.00132</v>
       </c>
       <c r="M81" t="n">
         <v>0.007900000000000001</v>
@@ -6986,7 +6986,7 @@
         <v>0.00195</v>
       </c>
       <c r="G82" t="n">
-        <v>0.007872908261108501</v>
+        <v>0.0078738077135454</v>
       </c>
       <c r="H82" t="n">
         <v>0.165941180666665</v>
@@ -6997,7 +6997,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.00131</v>
+        <v>0.00132</v>
       </c>
       <c r="M82" t="n">
         <v>0.007900000000000001</v>
@@ -7222,10 +7222,10 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9215</v>
+        <v>0.92135</v>
       </c>
       <c r="G85" t="n">
-        <v>0.9268833333333329</v>
+        <v>0.926833333333333</v>
       </c>
       <c r="H85" t="n">
         <v>1.694</v>
@@ -7236,13 +7236,13 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
-        <v>0.617</v>
+        <v>0.61695</v>
       </c>
       <c r="M85" t="n">
-        <v>1.3268</v>
+        <v>1.32645</v>
       </c>
       <c r="N85" t="n">
-        <v>1.5096</v>
+        <v>1.50951</v>
       </c>
       <c r="O85" t="n">
         <v>1840094</v>
@@ -7299,10 +7299,10 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9215</v>
+        <v>0.92135</v>
       </c>
       <c r="G86" t="n">
-        <v>0.9268833333333329</v>
+        <v>0.926833333333333</v>
       </c>
       <c r="H86" t="n">
         <v>1.694</v>
@@ -7313,13 +7313,13 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
-        <v>0.617</v>
+        <v>0.61695</v>
       </c>
       <c r="M86" t="n">
-        <v>1.3268</v>
+        <v>1.32645</v>
       </c>
       <c r="N86" t="n">
-        <v>1.5096</v>
+        <v>1.50951</v>
       </c>
       <c r="O86" t="n">
         <v>1840094</v>
@@ -7533,7 +7533,7 @@
         <v>0.013</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0182969883694613</v>
+        <v>0.0182996830980374</v>
       </c>
       <c r="H89" t="n">
         <v>0.098</v>
@@ -7610,7 +7610,7 @@
         <v>0.013</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0182969883694613</v>
+        <v>0.0182996830980374</v>
       </c>
       <c r="H90" t="n">
         <v>0.098</v>
@@ -7691,7 +7691,7 @@
         <v>0.005</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0068709430841318</v>
+        <v>0.0068723874066915</v>
       </c>
       <c r="H91" t="n">
         <v>0.048</v>
@@ -7772,7 +7772,7 @@
         <v>0.005</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0068709430841318</v>
+        <v>0.0068723874066915</v>
       </c>
       <c r="H92" t="n">
         <v>0.048</v>
@@ -8193,7 +8193,7 @@
         <v>0.00155</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006305554626966</v>
+        <v>0.0063064247238478</v>
       </c>
       <c r="H97" t="n">
         <v>0.165941180666665</v>
@@ -8204,7 +8204,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.00131</v>
+        <v>0.00132</v>
       </c>
       <c r="M97" t="n">
         <v>0.00751</v>
@@ -8274,7 +8274,7 @@
         <v>0.00155</v>
       </c>
       <c r="G98" t="n">
-        <v>0.006305554626966</v>
+        <v>0.0063064247238478</v>
       </c>
       <c r="H98" t="n">
         <v>0.165941180666665</v>
@@ -8285,7 +8285,7 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.00131</v>
+        <v>0.00132</v>
       </c>
       <c r="M98" t="n">
         <v>0.00751</v>
@@ -8510,13 +8510,13 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0.9215</v>
+        <v>0.92135</v>
       </c>
       <c r="G101" t="n">
-        <v>0.909633333333333</v>
+        <v>0.909581666666667</v>
       </c>
       <c r="H101" t="n">
-        <v>1.68</v>
+        <v>1.6804</v>
       </c>
       <c r="I101" t="n">
         <v>1.555</v>
@@ -8524,13 +8524,13 @@
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
-        <v>0.534</v>
+        <v>0.53415</v>
       </c>
       <c r="M101" t="n">
-        <v>1.3268</v>
+        <v>1.32645</v>
       </c>
       <c r="N101" t="n">
-        <v>1.4784</v>
+        <v>1.47819</v>
       </c>
       <c r="O101" t="n">
         <v>1840094</v>
@@ -8587,13 +8587,13 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0.9215</v>
+        <v>0.92135</v>
       </c>
       <c r="G102" t="n">
-        <v>0.909633333333333</v>
+        <v>0.909581666666667</v>
       </c>
       <c r="H102" t="n">
-        <v>1.68</v>
+        <v>1.6804</v>
       </c>
       <c r="I102" t="n">
         <v>1.555</v>
@@ -8601,13 +8601,13 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.534</v>
+        <v>0.53415</v>
       </c>
       <c r="M102" t="n">
-        <v>1.3268</v>
+        <v>1.32645</v>
       </c>
       <c r="N102" t="n">
-        <v>1.4784</v>
+        <v>1.47819</v>
       </c>
       <c r="O102" t="n">
         <v>1840094</v>
@@ -9137,7 +9137,7 @@
         <v>0.005</v>
       </c>
       <c r="G109" t="n">
-        <v>0.006846667260303</v>
+        <v>0.0068472159189279</v>
       </c>
       <c r="H109" t="n">
         <v>0.048</v>
@@ -9148,7 +9148,7 @@
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
-        <v>0.00464</v>
+        <v>0.00463</v>
       </c>
       <c r="M109" t="n">
         <v>0.008999999999999999</v>
@@ -9218,7 +9218,7 @@
         <v>0.005</v>
       </c>
       <c r="G110" t="n">
-        <v>0.006846667260303</v>
+        <v>0.0068472159189279</v>
       </c>
       <c r="H110" t="n">
         <v>0.048</v>
@@ -9229,7 +9229,7 @@
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
-        <v>0.00464</v>
+        <v>0.00463</v>
       </c>
       <c r="M110" t="n">
         <v>0.008999999999999999</v>
@@ -9299,10 +9299,10 @@
         <v>109</v>
       </c>
       <c r="G111" t="n">
-        <v>690.272770294053</v>
+        <v>752.3173007341539</v>
       </c>
       <c r="H111" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I111" t="n">
         <v>5100</v>
@@ -9384,10 +9384,10 @@
         <v>109</v>
       </c>
       <c r="G112" t="n">
-        <v>690.272770294053</v>
+        <v>752.3173007341539</v>
       </c>
       <c r="H112" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I112" t="n">
         <v>5100</v>
@@ -9469,10 +9469,10 @@
         <v>109</v>
       </c>
       <c r="G113" t="n">
-        <v>690.272770294053</v>
+        <v>752.3173007341539</v>
       </c>
       <c r="H113" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I113" t="n">
         <v>5100</v>
@@ -9554,10 +9554,10 @@
         <v>109</v>
       </c>
       <c r="G114" t="n">
-        <v>690.272770294053</v>
+        <v>752.3173007341539</v>
       </c>
       <c r="H114" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I114" t="n">
         <v>5100</v>
@@ -9716,7 +9716,7 @@
         <v>0.00196</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0065035743225129</v>
+        <v>0.0065038505644694</v>
       </c>
       <c r="H116" t="n">
         <v>0.165941180666665</v>
@@ -9797,7 +9797,7 @@
         <v>0.00196</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0065035743225129</v>
+        <v>0.0065038505644694</v>
       </c>
       <c r="H117" t="n">
         <v>0.165941180666665</v>
@@ -10110,13 +10110,13 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.903</v>
+        <v>0.90315</v>
       </c>
       <c r="G121" t="n">
-        <v>0.896433333333333</v>
+        <v>0.89641</v>
       </c>
       <c r="H121" t="n">
-        <v>1.68</v>
+        <v>1.6804</v>
       </c>
       <c r="I121" t="n">
         <v>1.555</v>
@@ -10124,13 +10124,13 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.513</v>
+        <v>0.51325</v>
       </c>
       <c r="M121" t="n">
-        <v>1.3268</v>
+        <v>1.32645</v>
       </c>
       <c r="N121" t="n">
-        <v>1.4784</v>
+        <v>1.47819</v>
       </c>
       <c r="O121" t="n">
         <v>1840094</v>
@@ -10187,13 +10187,13 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>0.903</v>
+        <v>0.90315</v>
       </c>
       <c r="G122" t="n">
-        <v>0.896433333333333</v>
+        <v>0.89641</v>
       </c>
       <c r="H122" t="n">
-        <v>1.68</v>
+        <v>1.6804</v>
       </c>
       <c r="I122" t="n">
         <v>1.555</v>
@@ -10201,13 +10201,13 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
-        <v>0.513</v>
+        <v>0.51325</v>
       </c>
       <c r="M122" t="n">
-        <v>1.3268</v>
+        <v>1.32645</v>
       </c>
       <c r="N122" t="n">
-        <v>1.4784</v>
+        <v>1.47819</v>
       </c>
       <c r="O122" t="n">
         <v>1840094</v>
@@ -10737,7 +10737,7 @@
         <v>0.005</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0061880730412774</v>
+        <v>0.0061878424166598</v>
       </c>
       <c r="H129" t="n">
         <v>0.022</v>
@@ -10748,7 +10748,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00432</v>
+        <v>0.00431</v>
       </c>
       <c r="M129" t="n">
         <v>0.00847</v>
@@ -10818,7 +10818,7 @@
         <v>0.005</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0061880730412774</v>
+        <v>0.0061878424166598</v>
       </c>
       <c r="H130" t="n">
         <v>0.022</v>
@@ -10829,7 +10829,7 @@
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
-        <v>0.00432</v>
+        <v>0.00431</v>
       </c>
       <c r="M130" t="n">
         <v>0.00847</v>
@@ -10899,10 +10899,10 @@
         <v>130</v>
       </c>
       <c r="G131" t="n">
-        <v>741.751969790563</v>
+        <v>804.848102441512</v>
       </c>
       <c r="H131" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I131" t="n">
         <v>5280</v>
@@ -10984,10 +10984,10 @@
         <v>130</v>
       </c>
       <c r="G132" t="n">
-        <v>741.751969790563</v>
+        <v>804.848102441512</v>
       </c>
       <c r="H132" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I132" t="n">
         <v>5280</v>
@@ -11069,10 +11069,10 @@
         <v>130</v>
       </c>
       <c r="G133" t="n">
-        <v>741.751969790563</v>
+        <v>804.848102441512</v>
       </c>
       <c r="H133" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I133" t="n">
         <v>5280</v>
@@ -11154,10 +11154,10 @@
         <v>130</v>
       </c>
       <c r="G134" t="n">
-        <v>741.751969790563</v>
+        <v>804.848102441512</v>
       </c>
       <c r="H134" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I134" t="n">
         <v>5280</v>
@@ -11316,7 +11316,7 @@
         <v>0.00223</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0034032007441157</v>
+        <v>0.0034001029185788</v>
       </c>
       <c r="H136" t="n">
         <v>0.0125069142630644</v>
@@ -11330,7 +11330,7 @@
         <v>0.0021</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0059</v>
+        <v>0.00589</v>
       </c>
       <c r="N136" t="n">
         <v>0.00817</v>
@@ -11397,7 +11397,7 @@
         <v>0.00223</v>
       </c>
       <c r="G137" t="n">
-        <v>0.0034032007441157</v>
+        <v>0.0034001029185788</v>
       </c>
       <c r="H137" t="n">
         <v>0.0125069142630644</v>
@@ -11411,7 +11411,7 @@
         <v>0.0021</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0059</v>
+        <v>0.00589</v>
       </c>
       <c r="N137" t="n">
         <v>0.00817</v>
@@ -11713,10 +11713,10 @@
         <v>0.89</v>
       </c>
       <c r="G141" t="n">
-        <v>0.899067796610169</v>
+        <v>0.899057627118644</v>
       </c>
       <c r="H141" t="n">
-        <v>1.68</v>
+        <v>1.6804</v>
       </c>
       <c r="I141" t="n">
         <v>1.595</v>
@@ -11727,7 +11727,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="M141" t="n">
-        <v>1.33122</v>
+        <v>1.33095</v>
       </c>
       <c r="N141" t="n">
         <v>1.435</v>
@@ -11790,10 +11790,10 @@
         <v>0.89</v>
       </c>
       <c r="G142" t="n">
-        <v>0.899067796610169</v>
+        <v>0.899057627118644</v>
       </c>
       <c r="H142" t="n">
-        <v>1.68</v>
+        <v>1.6804</v>
       </c>
       <c r="I142" t="n">
         <v>1.595</v>
@@ -11804,7 +11804,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="M142" t="n">
-        <v>1.33122</v>
+        <v>1.33095</v>
       </c>
       <c r="N142" t="n">
         <v>1.435</v>
@@ -12418,7 +12418,7 @@
         <v>0.005</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0066301794049852</v>
+        <v>0.0066293336292516</v>
       </c>
       <c r="H150" t="n">
         <v>0.026</v>
@@ -12429,7 +12429,7 @@
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
-        <v>0.0041</v>
+        <v>0.00409</v>
       </c>
       <c r="M150" t="n">
         <v>0.008999999999999999</v>
@@ -12499,7 +12499,7 @@
         <v>0.005</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0066301794049852</v>
+        <v>0.0066293336292516</v>
       </c>
       <c r="H151" t="n">
         <v>0.026</v>
@@ -12510,7 +12510,7 @@
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
-        <v>0.0041</v>
+        <v>0.00409</v>
       </c>
       <c r="M151" t="n">
         <v>0.008999999999999999</v>
@@ -12580,10 +12580,10 @@
         <v>135</v>
       </c>
       <c r="G152" t="n">
-        <v>663.247693407641</v>
+        <v>727.431690414642</v>
       </c>
       <c r="H152" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I152" t="n">
         <v>2620</v>
@@ -12665,10 +12665,10 @@
         <v>135</v>
       </c>
       <c r="G153" t="n">
-        <v>663.247693407641</v>
+        <v>727.431690414642</v>
       </c>
       <c r="H153" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I153" t="n">
         <v>2620</v>
@@ -12750,10 +12750,10 @@
         <v>135</v>
       </c>
       <c r="G154" t="n">
-        <v>663.247693407641</v>
+        <v>727.431690414642</v>
       </c>
       <c r="H154" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I154" t="n">
         <v>2620</v>
@@ -12835,10 +12835,10 @@
         <v>135</v>
       </c>
       <c r="G155" t="n">
-        <v>663.247693407641</v>
+        <v>727.431690414642</v>
       </c>
       <c r="H155" t="n">
-        <v>11408.3662176432</v>
+        <v>15131.0380440492</v>
       </c>
       <c r="I155" t="n">
         <v>2620</v>
@@ -12997,7 +12997,7 @@
         <v>0.00258</v>
       </c>
       <c r="G157" t="n">
-        <v>0.003651277523181</v>
+        <v>0.0036486592262707</v>
       </c>
       <c r="H157" t="n">
         <v>0.0132710428297979</v>
@@ -13008,7 +13008,7 @@
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
-        <v>0.00302</v>
+        <v>0.00301</v>
       </c>
       <c r="M157" t="n">
         <v>0.00683</v>
@@ -13078,7 +13078,7 @@
         <v>0.00258</v>
       </c>
       <c r="G158" t="n">
-        <v>0.003651277523181</v>
+        <v>0.0036486592262707</v>
       </c>
       <c r="H158" t="n">
         <v>0.0132710428297979</v>
@@ -13089,7 +13089,7 @@
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
-        <v>0.00302</v>
+        <v>0.00301</v>
       </c>
       <c r="M158" t="n">
         <v>0.00683</v>
@@ -13394,13 +13394,13 @@
         <v>0.8525</v>
       </c>
       <c r="G162" t="n">
-        <v>0.890431034482759</v>
+        <v>0.890448275862069</v>
       </c>
       <c r="H162" t="n">
         <v>1.682</v>
       </c>
       <c r="I162" t="n">
-        <v>1.61</v>
+        <v>1.6103</v>
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
@@ -13471,13 +13471,13 @@
         <v>0.8525</v>
       </c>
       <c r="G163" t="n">
-        <v>0.890431034482759</v>
+        <v>0.890448275862069</v>
       </c>
       <c r="H163" t="n">
         <v>1.682</v>
       </c>
       <c r="I163" t="n">
-        <v>1.61</v>
+        <v>1.6103</v>
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
@@ -14099,7 +14099,7 @@
         <v>0.006</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0067151265875282</v>
+        <v>0.0067136498376123</v>
       </c>
       <c r="H171" t="n">
         <v>0.026</v>
@@ -14110,7 +14110,7 @@
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
-        <v>0.00424</v>
+        <v>0.00423</v>
       </c>
       <c r="M171" t="n">
         <v>0.008999999999999999</v>
@@ -14180,7 +14180,7 @@
         <v>0.006</v>
       </c>
       <c r="G172" t="n">
-        <v>0.0067151265875282</v>
+        <v>0.0067136498376123</v>
       </c>
       <c r="H172" t="n">
         <v>0.026</v>
@@ -14191,7 +14191,7 @@
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
-        <v>0.00424</v>
+        <v>0.00423</v>
       </c>
       <c r="M172" t="n">
         <v>0.008999999999999999</v>
@@ -14261,7 +14261,7 @@
         <v>175</v>
       </c>
       <c r="G173" t="n">
-        <v>1171.3511416835</v>
+        <v>1235.5351386905</v>
       </c>
       <c r="H173" t="n">
         <v>29000</v>
@@ -14346,7 +14346,7 @@
         <v>175</v>
       </c>
       <c r="G174" t="n">
-        <v>1171.3511416835</v>
+        <v>1235.5351386905</v>
       </c>
       <c r="H174" t="n">
         <v>29000</v>
@@ -14431,7 +14431,7 @@
         <v>175</v>
       </c>
       <c r="G175" t="n">
-        <v>1171.3511416835</v>
+        <v>1235.5351386905</v>
       </c>
       <c r="H175" t="n">
         <v>29000</v>
@@ -14516,7 +14516,7 @@
         <v>175</v>
       </c>
       <c r="G176" t="n">
-        <v>1171.3511416835</v>
+        <v>1235.5351386905</v>
       </c>
       <c r="H176" t="n">
         <v>29000</v>
@@ -14678,7 +14678,7 @@
         <v>0.00265</v>
       </c>
       <c r="G178" t="n">
-        <v>0.0038918667005263</v>
+        <v>0.0038886753618004</v>
       </c>
       <c r="H178" t="n">
         <v>0.0165145069498038</v>
@@ -14689,7 +14689,7 @@
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
-        <v>0.00302</v>
+        <v>0.00301</v>
       </c>
       <c r="M178" t="n">
         <v>0.00724</v>
@@ -14759,7 +14759,7 @@
         <v>0.00265</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0038918667005263</v>
+        <v>0.0038886753618004</v>
       </c>
       <c r="H179" t="n">
         <v>0.0165145069498038</v>
@@ -14770,7 +14770,7 @@
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
-        <v>0.00302</v>
+        <v>0.00301</v>
       </c>
       <c r="M179" t="n">
         <v>0.00724</v>
@@ -15075,13 +15075,13 @@
         <v>0.7995</v>
       </c>
       <c r="G183" t="n">
-        <v>0.8425862068965519</v>
+        <v>0.842603448275862</v>
       </c>
       <c r="H183" t="n">
         <v>1.731</v>
       </c>
       <c r="I183" t="n">
-        <v>1.6168</v>
+        <v>1.6171</v>
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
@@ -15152,13 +15152,13 @@
         <v>0.7995</v>
       </c>
       <c r="G184" t="n">
-        <v>0.8425862068965519</v>
+        <v>0.842603448275862</v>
       </c>
       <c r="H184" t="n">
         <v>1.731</v>
       </c>
       <c r="I184" t="n">
-        <v>1.6168</v>
+        <v>1.6171</v>
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
@@ -15780,7 +15780,7 @@
         <v>0.006</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0074633044099445</v>
+        <v>0.0074618178990503</v>
       </c>
       <c r="H192" t="n">
         <v>0.026</v>
@@ -15791,7 +15791,7 @@
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>0.00432</v>
+        <v>0.00431</v>
       </c>
       <c r="M192" t="n">
         <v>0.01</v>
@@ -15861,7 +15861,7 @@
         <v>0.006</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0074633044099445</v>
+        <v>0.0074618178990503</v>
       </c>
       <c r="H193" t="n">
         <v>0.026</v>
@@ -15872,7 +15872,7 @@
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
-        <v>0.00432</v>
+        <v>0.00431</v>
       </c>
       <c r="M193" t="n">
         <v>0.01</v>
@@ -15942,13 +15942,13 @@
         <v>200</v>
       </c>
       <c r="G194" t="n">
-        <v>1719.72829633006</v>
+        <v>1517.74278587815</v>
       </c>
       <c r="H194" t="n">
         <v>29000</v>
       </c>
       <c r="I194" t="n">
-        <v>9605.01973</v>
+        <v>8147.42612</v>
       </c>
       <c r="J194" t="n">
         <v>31.0344827586207</v>
@@ -16027,13 +16027,13 @@
         <v>200</v>
       </c>
       <c r="G195" t="n">
-        <v>1719.72829633006</v>
+        <v>1517.74278587815</v>
       </c>
       <c r="H195" t="n">
         <v>29000</v>
       </c>
       <c r="I195" t="n">
-        <v>9605.01973</v>
+        <v>8147.42612</v>
       </c>
       <c r="J195" t="n">
         <v>31.0344827586207</v>
@@ -16112,13 +16112,13 @@
         <v>200</v>
       </c>
       <c r="G196" t="n">
-        <v>1719.72829633006</v>
+        <v>1517.74278587815</v>
       </c>
       <c r="H196" t="n">
         <v>29000</v>
       </c>
       <c r="I196" t="n">
-        <v>9605.01973</v>
+        <v>8147.42612</v>
       </c>
       <c r="J196" t="n">
         <v>31.0344827586207</v>
@@ -16197,13 +16197,13 @@
         <v>200</v>
       </c>
       <c r="G197" t="n">
-        <v>1719.72829633006</v>
+        <v>1517.74278587815</v>
       </c>
       <c r="H197" t="n">
         <v>29000</v>
       </c>
       <c r="I197" t="n">
-        <v>9605.01973</v>
+        <v>8147.42612</v>
       </c>
       <c r="J197" t="n">
         <v>31.0344827586207</v>
@@ -16359,7 +16359,7 @@
         <v>0.003</v>
       </c>
       <c r="G199" t="n">
-        <v>0.004444682077037</v>
+        <v>0.0044414600665113</v>
       </c>
       <c r="H199" t="n">
         <v>0.0174498291367202</v>
@@ -16440,7 +16440,7 @@
         <v>0.003</v>
       </c>
       <c r="G200" t="n">
-        <v>0.004444682077037</v>
+        <v>0.0044414600665113</v>
       </c>
       <c r="H200" t="n">
         <v>0.0174498291367202</v>
@@ -16756,13 +16756,13 @@
         <v>0.82</v>
       </c>
       <c r="G204" t="n">
-        <v>0.852</v>
+        <v>0.85201724137931</v>
       </c>
       <c r="H204" t="n">
         <v>1.731</v>
       </c>
       <c r="I204" t="n">
-        <v>1.6168</v>
+        <v>1.6171</v>
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
@@ -16833,13 +16833,13 @@
         <v>0.82</v>
       </c>
       <c r="G205" t="n">
-        <v>0.852</v>
+        <v>0.85201724137931</v>
       </c>
       <c r="H205" t="n">
         <v>1.731</v>
       </c>
       <c r="I205" t="n">
-        <v>1.6168</v>
+        <v>1.6171</v>
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
@@ -17192,6 +17192,1687 @@
         </is>
       </c>
     </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F210" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G210" t="n">
+        <v>0.3254</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M210" t="n">
+        <v>0.35195</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="O210" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P210" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F211" t="n">
+        <v>52.5</v>
+      </c>
+      <c r="G211" t="n">
+        <v>60.7763157894737</v>
+      </c>
+      <c r="H211" t="n">
+        <v>215</v>
+      </c>
+      <c r="I211" t="n">
+        <v>185</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>55</v>
+      </c>
+      <c r="M211" t="n">
+        <v>95.40000000000001</v>
+      </c>
+      <c r="N211" t="n">
+        <v>134.9</v>
+      </c>
+      <c r="O211" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P211" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 3)</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F212" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.19857142857143</v>
+      </c>
+      <c r="H212" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I212" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1.875</v>
+      </c>
+      <c r="M212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2.728</v>
+      </c>
+      <c r="O212" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P212" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F213" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G213" t="n">
+        <v>0.0077456853008147</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="M213" t="n">
+        <v>0.01164</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0.01486</v>
+      </c>
+      <c r="O213" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P213" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T213" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.0077456853008147</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.0188</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.00475</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.01164</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.01486</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>195</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1320.19040580834</v>
+      </c>
+      <c r="H215" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I215" t="n">
+        <v>6220</v>
+      </c>
+      <c r="J215" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K215" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L215" t="n">
+        <v>220</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1581.64</v>
+      </c>
+      <c r="N215" t="n">
+        <v>2942.8</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>195</v>
+      </c>
+      <c r="G216" t="n">
+        <v>1320.19040580834</v>
+      </c>
+      <c r="H216" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I216" t="n">
+        <v>6220</v>
+      </c>
+      <c r="J216" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K216" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L216" t="n">
+        <v>220</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1581.64</v>
+      </c>
+      <c r="N216" t="n">
+        <v>2942.8</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>195</v>
+      </c>
+      <c r="G217" t="n">
+        <v>1320.19040580834</v>
+      </c>
+      <c r="H217" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I217" t="n">
+        <v>6220</v>
+      </c>
+      <c r="J217" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K217" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L217" t="n">
+        <v>220</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1581.64</v>
+      </c>
+      <c r="N217" t="n">
+        <v>2942.8</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>195</v>
+      </c>
+      <c r="G218" t="n">
+        <v>1320.19040580834</v>
+      </c>
+      <c r="H218" t="n">
+        <v>29000</v>
+      </c>
+      <c r="I218" t="n">
+        <v>6220</v>
+      </c>
+      <c r="J218" t="n">
+        <v>31.0344827586207</v>
+      </c>
+      <c r="K218" t="n">
+        <v>43.1034482758621</v>
+      </c>
+      <c r="L218" t="n">
+        <v>220</v>
+      </c>
+      <c r="M218" t="n">
+        <v>1581.64</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2942.8</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>91.43000000000001</v>
+      </c>
+      <c r="G219" t="n">
+        <v>93.02</v>
+      </c>
+      <c r="H219" t="n">
+        <v>102</v>
+      </c>
+      <c r="I219" t="n">
+        <v>102</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>91.43000000000001</v>
+      </c>
+      <c r="M219" t="n">
+        <v>98.3845</v>
+      </c>
+      <c r="N219" t="n">
+        <v>102</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="G220" t="n">
+        <v>0.0048396249674202</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0.0174498291367202</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0.01391</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>0.00369</v>
+      </c>
+      <c r="M220" t="n">
+        <v>0.01016</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0.01231</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>0.00313</v>
+      </c>
+      <c r="G221" t="n">
+        <v>0.0048396249674202</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0.0174498291367202</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0.01391</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>0.00369</v>
+      </c>
+      <c r="M221" t="n">
+        <v>0.01016</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0.01231</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>0.7915</v>
+      </c>
+      <c r="G222" t="n">
+        <v>0.840258620689655</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I222" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="M222" t="n">
+        <v>1.2428</v>
+      </c>
+      <c r="N222" t="n">
+        <v>1.5662</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.7915</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.840258620689655</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="I223" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="M223" t="n">
+        <v>1.2428</v>
+      </c>
+      <c r="N223" t="n">
+        <v>1.5662</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>4.756</v>
+      </c>
+      <c r="G224" t="n">
+        <v>4.8816</v>
+      </c>
+      <c r="H224" t="n">
+        <v>5.362</v>
+      </c>
+      <c r="I224" t="n">
+        <v>5.362</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>4.756</v>
+      </c>
+      <c r="M224" t="n">
+        <v>5.3053</v>
+      </c>
+      <c r="N224" t="n">
+        <v>5.362</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.7995</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.854758620689655</v>
+      </c>
+      <c r="H225" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="I225" t="n">
+        <v>1.6171</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M225" t="n">
+        <v>1.25036</v>
+      </c>
+      <c r="N225" t="n">
+        <v>1.5726</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.7995</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.854758620689655</v>
+      </c>
+      <c r="H226" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="I226" t="n">
+        <v>1.6171</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="M226" t="n">
+        <v>1.25036</v>
+      </c>
+      <c r="N226" t="n">
+        <v>1.5726</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="G227" t="n">
+        <v>1.03327586206897</v>
+      </c>
+      <c r="H227" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I227" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M227" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N227" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>1.005</v>
+      </c>
+      <c r="G228" t="n">
+        <v>1.03327586206897</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="I228" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M228" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N228" t="n">
+        <v>1.683</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.0407241379310345</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.08155999999999999</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.14934</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Mangatainoka at Pahiatua Town Bridge</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.0165</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.0407241379310345</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.168</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.08155999999999999</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.14934</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1840094</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5518493</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Mangatainoka</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Mana_8c</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
+++ b/state_results/Rivers/MangatainokaatPahiatuaTownBridge_1b502df908.xlsx
@@ -3746,13 +3746,13 @@
         <v>1.7</v>
       </c>
       <c r="G42" t="n">
-        <v>1.95818540521323</v>
+        <v>1.9782771557713</v>
       </c>
       <c r="H42" t="n">
         <v>6</v>
       </c>
       <c r="I42" t="n">
-        <v>4.96583</v>
+        <v>4.98239</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -3763,7 +3763,7 @@
         <v>3.023</v>
       </c>
       <c r="N42" t="n">
-        <v>4.33023</v>
+        <v>4.65483</v>
       </c>
       <c r="O42" t="n">
         <v>1840094</v>
@@ -9299,10 +9299,10 @@
         <v>109</v>
       </c>
       <c r="G111" t="n">
-        <v>752.3173007341539</v>
+        <v>707.844043514982</v>
       </c>
       <c r="H111" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I111" t="n">
         <v>5100</v>
@@ -9384,10 +9384,10 @@
         <v>109</v>
       </c>
       <c r="G112" t="n">
-        <v>752.3173007341539</v>
+        <v>707.844043514982</v>
       </c>
       <c r="H112" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I112" t="n">
         <v>5100</v>
@@ -9469,10 +9469,10 @@
         <v>109</v>
       </c>
       <c r="G113" t="n">
-        <v>752.3173007341539</v>
+        <v>707.844043514982</v>
       </c>
       <c r="H113" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I113" t="n">
         <v>5100</v>
@@ -9554,10 +9554,10 @@
         <v>109</v>
       </c>
       <c r="G114" t="n">
-        <v>752.3173007341539</v>
+        <v>707.844043514982</v>
       </c>
       <c r="H114" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I114" t="n">
         <v>5100</v>
@@ -10899,10 +10899,10 @@
         <v>130</v>
       </c>
       <c r="G131" t="n">
-        <v>804.848102441512</v>
+        <v>759.621061201676</v>
       </c>
       <c r="H131" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I131" t="n">
         <v>5280</v>
@@ -10984,10 +10984,10 @@
         <v>130</v>
       </c>
       <c r="G132" t="n">
-        <v>804.848102441512</v>
+        <v>759.621061201676</v>
       </c>
       <c r="H132" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I132" t="n">
         <v>5280</v>
@@ -11069,10 +11069,10 @@
         <v>130</v>
       </c>
       <c r="G133" t="n">
-        <v>804.848102441512</v>
+        <v>759.621061201676</v>
       </c>
       <c r="H133" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I133" t="n">
         <v>5280</v>
@@ -11154,10 +11154,10 @@
         <v>130</v>
       </c>
       <c r="G134" t="n">
-        <v>804.848102441512</v>
+        <v>759.621061201676</v>
       </c>
       <c r="H134" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I134" t="n">
         <v>5280</v>
@@ -12580,10 +12580,10 @@
         <v>135</v>
       </c>
       <c r="G152" t="n">
-        <v>727.431690414642</v>
+        <v>681.424872601705</v>
       </c>
       <c r="H152" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I152" t="n">
         <v>2620</v>
@@ -12665,10 +12665,10 @@
         <v>135</v>
       </c>
       <c r="G153" t="n">
-        <v>727.431690414642</v>
+        <v>681.424872601705</v>
       </c>
       <c r="H153" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I153" t="n">
         <v>2620</v>
@@ -12750,10 +12750,10 @@
         <v>135</v>
       </c>
       <c r="G154" t="n">
-        <v>727.431690414642</v>
+        <v>681.424872601705</v>
       </c>
       <c r="H154" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I154" t="n">
         <v>2620</v>
@@ -12835,10 +12835,10 @@
         <v>135</v>
       </c>
       <c r="G155" t="n">
-        <v>727.431690414642</v>
+        <v>681.424872601705</v>
       </c>
       <c r="H155" t="n">
-        <v>15131.0380440492</v>
+        <v>12462.6426108989</v>
       </c>
       <c r="I155" t="n">
         <v>2620</v>
@@ -14261,7 +14261,7 @@
         <v>175</v>
       </c>
       <c r="G173" t="n">
-        <v>1235.5351386905</v>
+        <v>1189.52832087757</v>
       </c>
       <c r="H173" t="n">
         <v>29000</v>
@@ -14346,7 +14346,7 @@
         <v>175</v>
       </c>
       <c r="G174" t="n">
-        <v>1235.5351386905</v>
+        <v>1189.52832087757</v>
       </c>
       <c r="H174" t="n">
         <v>29000</v>
@@ -14431,7 +14431,7 @@
         <v>175</v>
       </c>
       <c r="G175" t="n">
-        <v>1235.5351386905</v>
+        <v>1189.52832087757</v>
       </c>
       <c r="H175" t="n">
         <v>29000</v>
@@ -14516,7 +14516,7 @@
         <v>175</v>
       </c>
       <c r="G176" t="n">
-        <v>1235.5351386905</v>
+        <v>1189.52832087757</v>
       </c>
       <c r="H176" t="n">
         <v>29000</v>
@@ -15942,13 +15942,13 @@
         <v>200</v>
       </c>
       <c r="G194" t="n">
-        <v>1517.74278587815</v>
+        <v>1660.29727624768</v>
       </c>
       <c r="H194" t="n">
         <v>29000</v>
       </c>
       <c r="I194" t="n">
-        <v>8147.42612</v>
+        <v>10237.58557</v>
       </c>
       <c r="J194" t="n">
         <v>31.0344827586207</v>
@@ -16027,13 +16027,13 @@
         <v>200</v>
       </c>
       <c r="G195" t="n">
-        <v>1517.74278587815</v>
+        <v>1660.29727624768</v>
       </c>
       <c r="H195" t="n">
         <v>29000</v>
       </c>
       <c r="I195" t="n">
-        <v>8147.42612</v>
+        <v>10237.58557</v>
       </c>
       <c r="J195" t="n">
         <v>31.0344827586207</v>
@@ -16112,13 +16112,13 @@
         <v>200</v>
       </c>
       <c r="G196" t="n">
-        <v>1517.74278587815</v>
+        <v>1660.29727624768</v>
       </c>
       <c r="H196" t="n">
         <v>29000</v>
       </c>
       <c r="I196" t="n">
-        <v>8147.42612</v>
+        <v>10237.58557</v>
       </c>
       <c r="J196" t="n">
         <v>31.0344827586207</v>
@@ -16197,13 +16197,13 @@
         <v>200</v>
       </c>
       <c r="G197" t="n">
-        <v>1517.74278587815</v>
+        <v>1660.29727624768</v>
       </c>
       <c r="H197" t="n">
         <v>29000</v>
       </c>
       <c r="I197" t="n">
-        <v>8147.42612</v>
+        <v>10237.58557</v>
       </c>
       <c r="J197" t="n">
         <v>31.0344827586207</v>
@@ -17623,7 +17623,7 @@
         <v>195</v>
       </c>
       <c r="G215" t="n">
-        <v>1320.19040580834</v>
+        <v>1508.75171399081</v>
       </c>
       <c r="H215" t="n">
         <v>29000</v>
@@ -17708,7 +17708,7 @@
         <v>195</v>
       </c>
       <c r="G216" t="n">
-        <v>1320.19040580834</v>
+        <v>1508.75171399081</v>
       </c>
       <c r="H216" t="n">
         <v>29000</v>
@@ -17793,7 +17793,7 @@
         <v>195</v>
       </c>
       <c r="G217" t="n">
-        <v>1320.19040580834</v>
+        <v>1508.75171399081</v>
       </c>
       <c r="H217" t="n">
         <v>29000</v>
@@ -17878,7 +17878,7 @@
         <v>195</v>
       </c>
       <c r="G218" t="n">
-        <v>1320.19040580834</v>
+        <v>1508.75171399081</v>
       </c>
       <c r="H218" t="n">
         <v>29000</v>
